--- a/images/books.xlsx
+++ b/images/books.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>الدمام</t>
+  </si>
+  <si>
+    <t>https://archive.org/download/Quran1000/Quraan00004.zip</t>
+  </si>
+  <si>
+    <t>Quraan00004.zip</t>
   </si>
   <si>
     <t>أغنى رجل في بابل</t>
@@ -465,7 +471,6 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <u/>
       <sz val="11.0"/>
       <color theme="10"/>
     </font>
@@ -3098,8 +3103,8 @@
       <c r="L4" s="2">
         <v>120.0</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>26</v>
+      <c r="M4" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>27</v>
@@ -3114,7 +3119,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -3125,10 +3130,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
@@ -3154,9 +3159,7 @@
       <c r="L5" s="2">
         <v>120.0</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M5" s="8"/>
       <c r="N5" s="4" t="s">
         <v>27</v>
       </c>
@@ -3169,9 +3172,7 @@
       <c r="Q5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R5" s="6"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1">
@@ -3181,10 +3182,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
@@ -3210,9 +3211,7 @@
       <c r="L6" s="2">
         <v>120.0</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M6" s="8"/>
       <c r="N6" s="4" t="s">
         <v>27</v>
       </c>
@@ -3225,9 +3224,7 @@
       <c r="Q6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1">
@@ -3237,10 +3234,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
@@ -3255,7 +3252,7 @@
         <v>45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>25</v>
@@ -3266,9 +3263,7 @@
       <c r="L7" s="2">
         <v>120.0</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M7" s="8"/>
       <c r="N7" s="4" t="s">
         <v>27</v>
       </c>
@@ -3281,9 +3276,7 @@
       <c r="Q7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1">
@@ -3293,16 +3286,16 @@
         <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2">
         <v>2020.0</v>
@@ -3311,7 +3304,7 @@
         <v>45</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>25</v>
@@ -3322,9 +3315,7 @@
       <c r="L8" s="2">
         <v>120.0</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M8" s="8"/>
       <c r="N8" s="4" t="s">
         <v>27</v>
       </c>
@@ -3337,9 +3328,7 @@
       <c r="Q8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1">
@@ -3349,16 +3338,16 @@
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2">
         <v>2020.0</v>
@@ -3367,7 +3356,7 @@
         <v>45</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>25</v>
@@ -3378,9 +3367,7 @@
       <c r="L9" s="2">
         <v>120.0</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M9" s="8"/>
       <c r="N9" s="4" t="s">
         <v>27</v>
       </c>
@@ -3393,9 +3380,7 @@
       <c r="Q9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1">
@@ -3405,16 +3390,16 @@
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2">
         <v>2020.0</v>
@@ -3434,11 +3419,9 @@
       <c r="L10" s="2">
         <v>120.0</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M10" s="8"/>
       <c r="N10" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>28</v>
@@ -3449,9 +3432,7 @@
       <c r="Q10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R10" s="6"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1">
@@ -3461,16 +3442,16 @@
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2">
         <v>2020.0</v>
@@ -3490,11 +3471,9 @@
       <c r="L11" s="2">
         <v>120.0</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M11" s="8"/>
       <c r="N11" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>28</v>
@@ -3505,9 +3484,7 @@
       <c r="Q11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1">
@@ -3517,16 +3494,16 @@
         <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2">
         <v>2020.0</v>
@@ -3546,11 +3523,9 @@
       <c r="L12" s="2">
         <v>120.0</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M12" s="8"/>
       <c r="N12" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>28</v>
@@ -3561,9 +3536,7 @@
       <c r="Q12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R12" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1">
@@ -3573,16 +3546,16 @@
         <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2">
         <v>2020.0</v>
@@ -3602,11 +3575,9 @@
       <c r="L13" s="2">
         <v>120.0</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M13" s="8"/>
       <c r="N13" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>28</v>
@@ -3617,9 +3588,7 @@
       <c r="Q13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R13" s="6"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="3">
@@ -3629,16 +3598,16 @@
         <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2">
         <v>2020.0</v>
@@ -3658,9 +3627,7 @@
       <c r="L14" s="2">
         <v>120.0</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M14" s="8"/>
       <c r="N14" s="4" t="s">
         <v>27</v>
       </c>
@@ -3673,9 +3640,7 @@
       <c r="Q14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -3685,16 +3650,16 @@
         <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2">
         <v>2020.0</v>
@@ -3714,9 +3679,7 @@
       <c r="L15" s="2">
         <v>120.0</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M15" s="8"/>
       <c r="N15" s="4" t="s">
         <v>27</v>
       </c>
@@ -3729,9 +3692,7 @@
       <c r="Q15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1">
@@ -3741,16 +3702,16 @@
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2">
         <v>2020.0</v>
@@ -3759,7 +3720,7 @@
         <v>45</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>25</v>
@@ -3770,11 +3731,9 @@
       <c r="L16" s="2">
         <v>120.0</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M16" s="8"/>
       <c r="N16" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>28</v>
@@ -3785,9 +3744,7 @@
       <c r="Q16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1">
@@ -3797,16 +3754,16 @@
         <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2">
         <v>2020.0</v>
@@ -3815,7 +3772,7 @@
         <v>45</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>25</v>
@@ -3826,11 +3783,9 @@
       <c r="L17" s="2">
         <v>120.0</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M17" s="8"/>
       <c r="N17" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>28</v>
@@ -3841,9 +3796,7 @@
       <c r="Q17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="1">
@@ -3853,16 +3806,16 @@
         <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G18" s="2">
         <v>2020.0</v>
@@ -3871,7 +3824,7 @@
         <v>45</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>25</v>
@@ -3882,11 +3835,9 @@
       <c r="L18" s="2">
         <v>120.0</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M18" s="8"/>
       <c r="N18" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>28</v>
@@ -3897,9 +3848,7 @@
       <c r="Q18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1">
@@ -3909,16 +3858,16 @@
         <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G19" s="2">
         <v>2020.0</v>
@@ -3927,7 +3876,7 @@
         <v>45</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>25</v>
@@ -3938,11 +3887,9 @@
       <c r="L19" s="2">
         <v>120.0</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M19" s="8"/>
       <c r="N19" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>28</v>
@@ -3953,9 +3900,7 @@
       <c r="Q19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="1">
@@ -3965,16 +3910,16 @@
         <v>32</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G20" s="2">
         <v>2020.0</v>
@@ -3983,7 +3928,7 @@
         <v>45</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>25</v>
@@ -3994,11 +3939,9 @@
       <c r="L20" s="2">
         <v>120.0</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="M20" s="8"/>
       <c r="N20" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>28</v>
@@ -4009,9 +3952,7 @@
       <c r="Q20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R20" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" ht="14.25" customHeight="1"/>
     <row r="22" ht="14.25" customHeight="1"/>
@@ -4998,27 +4939,11 @@
     <hyperlink r:id="rId1" ref="M2"/>
     <hyperlink r:id="rId2" ref="M3"/>
     <hyperlink r:id="rId3" ref="M4"/>
-    <hyperlink r:id="rId4" ref="M5"/>
-    <hyperlink r:id="rId5" ref="M6"/>
-    <hyperlink r:id="rId6" ref="M7"/>
-    <hyperlink r:id="rId7" ref="M8"/>
-    <hyperlink r:id="rId8" ref="M9"/>
-    <hyperlink r:id="rId9" ref="M10"/>
-    <hyperlink r:id="rId10" ref="M11"/>
-    <hyperlink r:id="rId11" ref="M12"/>
-    <hyperlink r:id="rId12" ref="M13"/>
-    <hyperlink r:id="rId13" ref="M14"/>
-    <hyperlink r:id="rId14" ref="M15"/>
-    <hyperlink r:id="rId15" ref="M16"/>
-    <hyperlink r:id="rId16" ref="M17"/>
-    <hyperlink r:id="rId17" ref="M18"/>
-    <hyperlink r:id="rId18" ref="M19"/>
-    <hyperlink r:id="rId19" ref="M20"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId20"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5040,16 +4965,16 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -5057,13 +4982,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -5071,13 +4996,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -5085,13 +5010,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -5099,13 +5024,13 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -5113,13 +5038,13 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -5127,13 +5052,13 @@
         <v>3.0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -5141,13 +5066,13 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -5155,13 +5080,13 @@
         <v>4.0</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -6195,13 +6120,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -6212,10 +6137,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>19</v>
@@ -6226,10 +6151,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>33</v>
@@ -6240,10 +6165,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>43</v>
@@ -6254,13 +6179,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -6268,13 +6193,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -6282,13 +6207,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -6296,13 +6221,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -6310,13 +6235,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -6324,13 +6249,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -6338,13 +6263,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -6352,13 +6277,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -6366,13 +6291,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -6380,13 +6305,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -6394,13 +6319,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -6408,13 +6333,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -6422,13 +6347,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -6436,13 +6361,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -6450,13 +6375,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -6464,13 +6389,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/images/books.xlsx
+++ b/images/books.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -95,7 +95,7 @@
     <t>الاولي</t>
   </si>
   <si>
-    <t>https://archive.org/download/Quran1000/Quraan00001.zip</t>
+    <t>http://www.africau.edu/images/default/sample.pdf</t>
   </si>
   <si>
     <t>ادارة اعمال</t>
@@ -110,7 +110,7 @@
     <t>khattab</t>
   </si>
   <si>
-    <t>Quraan00001.zip</t>
+    <t>sample.pdf</t>
   </si>
   <si>
     <t>مخطوطه</t>
@@ -137,15 +137,9 @@
     <t>الثانيه</t>
   </si>
   <si>
-    <t>https://archive.org/download/Quran1000/Quraan00003.zip</t>
-  </si>
-  <si>
     <t>فني</t>
   </si>
   <si>
-    <t>Quraan00003.zip</t>
-  </si>
-  <si>
     <t>أدوات ذهنية للمديرين</t>
   </si>
   <si>
@@ -156,12 +150,6 @@
   </si>
   <si>
     <t>الدمام</t>
-  </si>
-  <si>
-    <t>https://archive.org/download/Quran1000/Quraan00004.zip</t>
-  </si>
-  <si>
-    <t>Quraan00004.zip</t>
   </si>
   <si>
     <t>أغنى رجل في بابل</t>
@@ -445,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -464,15 +452,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="10"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -547,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -568,40 +547,36 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3047,14 +3022,14 @@
       <c r="L3" s="2">
         <v>140.0</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>40</v>
+      <c r="M3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>29</v>
@@ -3063,7 +3038,7 @@
         <v>30</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -3074,10 +3049,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
@@ -3089,10 +3064,10 @@
         <v>2020.0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>25</v>
@@ -3103,8 +3078,8 @@
       <c r="L4" s="2">
         <v>120.0</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>47</v>
+      <c r="M4" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>27</v>
@@ -3119,7 +3094,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -3130,10 +3105,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
@@ -3145,10 +3120,10 @@
         <v>2020.0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>25</v>
@@ -3159,7 +3134,9 @@
       <c r="L5" s="2">
         <v>120.0</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N5" s="4" t="s">
         <v>27</v>
       </c>
@@ -3172,7 +3149,9 @@
       <c r="Q5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1">
@@ -3182,10 +3161,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
@@ -3197,10 +3176,10 @@
         <v>2020.0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>25</v>
@@ -3211,7 +3190,9 @@
       <c r="L6" s="2">
         <v>120.0</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N6" s="4" t="s">
         <v>27</v>
       </c>
@@ -3224,7 +3205,9 @@
       <c r="Q6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="6"/>
+      <c r="R6" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1">
@@ -3234,10 +3217,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
@@ -3249,10 +3232,10 @@
         <v>2020.0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>25</v>
@@ -3263,7 +3246,9 @@
       <c r="L7" s="2">
         <v>120.0</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N7" s="4" t="s">
         <v>27</v>
       </c>
@@ -3276,7 +3261,9 @@
       <c r="Q7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="6"/>
+      <c r="R7" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1">
@@ -3286,25 +3273,25 @@
         <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2">
         <v>2020.0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>25</v>
@@ -3315,7 +3302,9 @@
       <c r="L8" s="2">
         <v>120.0</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N8" s="4" t="s">
         <v>27</v>
       </c>
@@ -3328,7 +3317,9 @@
       <c r="Q8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="R8" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1">
@@ -3338,25 +3329,25 @@
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2">
         <v>2020.0</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>25</v>
@@ -3367,7 +3358,9 @@
       <c r="L9" s="2">
         <v>120.0</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N9" s="4" t="s">
         <v>27</v>
       </c>
@@ -3380,7 +3373,9 @@
       <c r="Q9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1">
@@ -3390,16 +3385,16 @@
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2">
         <v>2020.0</v>
@@ -3419,9 +3414,11 @@
       <c r="L10" s="2">
         <v>120.0</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="M10" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N10" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>28</v>
@@ -3432,7 +3429,9 @@
       <c r="Q10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="6"/>
+      <c r="R10" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1">
@@ -3442,16 +3441,16 @@
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2">
         <v>2020.0</v>
@@ -3471,9 +3470,11 @@
       <c r="L11" s="2">
         <v>120.0</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N11" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>28</v>
@@ -3484,7 +3485,9 @@
       <c r="Q11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1">
@@ -3494,16 +3497,16 @@
         <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2">
         <v>2020.0</v>
@@ -3523,9 +3526,11 @@
       <c r="L12" s="2">
         <v>120.0</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N12" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>28</v>
@@ -3536,7 +3541,9 @@
       <c r="Q12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="R12" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1">
@@ -3546,16 +3553,16 @@
         <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2">
         <v>2020.0</v>
@@ -3575,9 +3582,11 @@
       <c r="L13" s="2">
         <v>120.0</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N13" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>28</v>
@@ -3588,7 +3597,9 @@
       <c r="Q13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="3">
@@ -3598,16 +3609,16 @@
         <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2">
         <v>2020.0</v>
@@ -3627,7 +3638,9 @@
       <c r="L14" s="2">
         <v>120.0</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N14" s="4" t="s">
         <v>27</v>
       </c>
@@ -3640,7 +3653,9 @@
       <c r="Q14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="6"/>
+      <c r="R14" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -3650,16 +3665,16 @@
         <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2">
         <v>2020.0</v>
@@ -3679,7 +3694,9 @@
       <c r="L15" s="2">
         <v>120.0</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N15" s="4" t="s">
         <v>27</v>
       </c>
@@ -3692,7 +3709,9 @@
       <c r="Q15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="6"/>
+      <c r="R15" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1">
@@ -3702,25 +3721,25 @@
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2">
         <v>2020.0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>25</v>
@@ -3731,9 +3750,11 @@
       <c r="L16" s="2">
         <v>120.0</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N16" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>28</v>
@@ -3744,7 +3765,9 @@
       <c r="Q16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="6"/>
+      <c r="R16" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1">
@@ -3754,25 +3777,25 @@
         <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2">
         <v>2020.0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>25</v>
@@ -3783,9 +3806,11 @@
       <c r="L17" s="2">
         <v>120.0</v>
       </c>
-      <c r="M17" s="8"/>
+      <c r="M17" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N17" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>28</v>
@@ -3796,7 +3821,9 @@
       <c r="Q17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="6"/>
+      <c r="R17" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="1">
@@ -3806,25 +3833,25 @@
         <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G18" s="2">
         <v>2020.0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>25</v>
@@ -3835,9 +3862,11 @@
       <c r="L18" s="2">
         <v>120.0</v>
       </c>
-      <c r="M18" s="8"/>
+      <c r="M18" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N18" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>28</v>
@@ -3848,7 +3877,9 @@
       <c r="Q18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="6"/>
+      <c r="R18" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1">
@@ -3858,25 +3889,25 @@
         <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G19" s="2">
         <v>2020.0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>25</v>
@@ -3887,9 +3918,11 @@
       <c r="L19" s="2">
         <v>120.0</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N19" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>28</v>
@@ -3900,7 +3933,9 @@
       <c r="Q19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="6"/>
+      <c r="R19" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="1">
@@ -3910,25 +3945,25 @@
         <v>32</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G20" s="2">
         <v>2020.0</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>25</v>
@@ -3939,9 +3974,11 @@
       <c r="L20" s="2">
         <v>120.0</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N20" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>28</v>
@@ -3952,7 +3989,9 @@
       <c r="Q20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R20" s="6"/>
+      <c r="R20" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" ht="14.25" customHeight="1"/>
     <row r="22" ht="14.25" customHeight="1"/>
@@ -4939,11 +4978,27 @@
     <hyperlink r:id="rId1" ref="M2"/>
     <hyperlink r:id="rId2" ref="M3"/>
     <hyperlink r:id="rId3" ref="M4"/>
+    <hyperlink r:id="rId4" ref="M5"/>
+    <hyperlink r:id="rId5" ref="M6"/>
+    <hyperlink r:id="rId6" ref="M7"/>
+    <hyperlink r:id="rId7" ref="M8"/>
+    <hyperlink r:id="rId8" ref="M9"/>
+    <hyperlink r:id="rId9" ref="M10"/>
+    <hyperlink r:id="rId10" ref="M11"/>
+    <hyperlink r:id="rId11" ref="M12"/>
+    <hyperlink r:id="rId12" ref="M13"/>
+    <hyperlink r:id="rId13" ref="M14"/>
+    <hyperlink r:id="rId14" ref="M15"/>
+    <hyperlink r:id="rId15" ref="M16"/>
+    <hyperlink r:id="rId16" ref="M17"/>
+    <hyperlink r:id="rId17" ref="M18"/>
+    <hyperlink r:id="rId18" ref="M19"/>
+    <hyperlink r:id="rId19" ref="M20"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -4965,135 +5020,135 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>1.0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>91</v>
+      <c r="B2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>1.0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>94</v>
+      <c r="B3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>2.0</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>97</v>
+      <c r="B4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>2.0</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>100</v>
+      <c r="B5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>3.0</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>91</v>
+      <c r="B6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>3.0</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>94</v>
+      <c r="B7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>4.0</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>91</v>
+      <c r="B8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>4.0</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>94</v>
+      <c r="B9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -6120,282 +6175,282 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>1.0</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>104</v>
+      <c r="B2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14">
+      <c r="A3" s="12">
         <v>2.0</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>106</v>
+      <c r="B3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>3.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>108</v>
+      <c r="B4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>4.0</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>110</v>
+      <c r="B5" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>5.0</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>112</v>
+      <c r="B6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>6.0</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>114</v>
+      <c r="B7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>7.0</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>116</v>
+      <c r="B8" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>8.0</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>118</v>
+      <c r="B9" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>9.0</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>120</v>
+      <c r="B10" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="14">
+      <c r="A11" s="12">
         <v>10.0</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>122</v>
+      <c r="B11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14">
+      <c r="A12" s="12">
         <v>11.0</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>124</v>
+      <c r="B12" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14">
+      <c r="A13" s="12">
         <v>12.0</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>126</v>
+      <c r="B13" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14">
+      <c r="A14" s="12">
         <v>13.0</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>128</v>
+      <c r="B14" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14">
+      <c r="A15" s="12">
         <v>14.0</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>130</v>
+      <c r="B15" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14">
+      <c r="A16" s="12">
         <v>15.0</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>132</v>
+      <c r="B16" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14">
+      <c r="A17" s="12">
         <v>16.0</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>134</v>
+      <c r="B17" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14">
+      <c r="A18" s="12">
         <v>17.0</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>136</v>
+      <c r="B18" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="14">
+      <c r="A19" s="12">
         <v>18.0</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>138</v>
+      <c r="B19" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14">
+      <c r="A20" s="12">
         <v>19.0</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>140</v>
+      <c r="B20" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
